--- a/Satisfactory_calculator/item_list.xlsx
+++ b/Satisfactory_calculator/item_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bjarki\source\repos\Satisfactory_calculator\Satisfactory_calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{622317F2-42AC-4CB3-AEC6-334A20BE0527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE53EA83-D73B-4B4E-BEAA-C51AE724892F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="0" windowWidth="38400" windowHeight="21000" xr2:uid="{CF63DFE2-E3F1-40A6-9DC4-F78A2094206C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21000" activeTab="1" xr2:uid="{CF63DFE2-E3F1-40A6-9DC4-F78A2094206C}"/>
   </bookViews>
   <sheets>
     <sheet name="raw_material" sheetId="4" r:id="rId1"/>
@@ -29,31 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="118">
-  <si>
-    <t>Output Material (Alt Recipes Found Via Hard Drive Scans in M.A.M.)</t>
-  </si>
-  <si>
-    <t>Qty</t>
-  </si>
-  <si>
-    <t>Base craft time (seconds)</t>
-  </si>
-  <si>
-    <t>Tier Unlocked</t>
-  </si>
-  <si>
-    <t>Input Material 1</t>
-  </si>
-  <si>
-    <t>Input Material 2</t>
-  </si>
-  <si>
-    <t>Input Material 3</t>
-  </si>
-  <si>
-    <t>Input Material 4</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="147">
   <si>
     <t>Crafted In</t>
   </si>
@@ -70,9 +46,6 @@
     <t>Iron Ingot (Alt)</t>
   </si>
   <si>
-    <t>1 (Hard Drive Scan)</t>
-  </si>
-  <si>
     <t>Copper Ore</t>
   </si>
   <si>
@@ -82,9 +55,6 @@
     <t>Copper Ingot</t>
   </si>
   <si>
-    <t>0 - HUB 1</t>
-  </si>
-  <si>
     <t>Iron Plate</t>
   </si>
   <si>
@@ -97,18 +67,12 @@
     <t>Screw</t>
   </si>
   <si>
-    <t>0 - HUB 2</t>
-  </si>
-  <si>
     <t>Screw (Alt)</t>
   </si>
   <si>
     <t>Screw (Alt - Steel)</t>
   </si>
   <si>
-    <t>4 (Hard Drive Scan)</t>
-  </si>
-  <si>
     <t>Steel Beam</t>
   </si>
   <si>
@@ -121,9 +85,6 @@
     <t>Wire (Alt - Caterium Wire)</t>
   </si>
   <si>
-    <t>3 (Hard Drive Scan)</t>
-  </si>
-  <si>
     <t>Caterium Ingot</t>
   </si>
   <si>
@@ -133,9 +94,6 @@
     <t>Cable (Alt - Rubber Cable)</t>
   </si>
   <si>
-    <t>5 (Hard Drive Scan)</t>
-  </si>
-  <si>
     <t>Rubber</t>
   </si>
   <si>
@@ -184,9 +142,6 @@
     <t>Biomass (Wood)</t>
   </si>
   <si>
-    <t>0 - HUB 3</t>
-  </si>
-  <si>
     <t>Wood</t>
   </si>
   <si>
@@ -247,9 +202,6 @@
     <t>Reinforced Iron Plate (Alt - Stitched)</t>
   </si>
   <si>
-    <t>2 (Hard Drive Scan)</t>
-  </si>
-  <si>
     <t>Reinforced Iron Plate (Alt)</t>
   </si>
   <si>
@@ -373,9 +325,6 @@
     <t>Beacon (Alt)</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>Silica (Alt)</t>
   </si>
   <si>
@@ -383,6 +332,144 @@
   </si>
   <si>
     <t>Miner</t>
+  </si>
+  <si>
+    <t>Biomass Burner</t>
+  </si>
+  <si>
+    <t>Coal Generator</t>
+  </si>
+  <si>
+    <t>Fuel Generator</t>
+  </si>
+  <si>
+    <t>Geo Thermal Generator</t>
+  </si>
+  <si>
+    <t>Miner MK2</t>
+  </si>
+  <si>
+    <t>Oil Pump</t>
+  </si>
+  <si>
+    <t>Conveyor Belt</t>
+  </si>
+  <si>
+    <t>Conveyor Belt Mk.2</t>
+  </si>
+  <si>
+    <t>Conveyor Belt Mk.3</t>
+  </si>
+  <si>
+    <t>Conveyor Belt Mk.4</t>
+  </si>
+  <si>
+    <t>Conveyor Lift</t>
+  </si>
+  <si>
+    <t>Conveyor Lift Mk.2</t>
+  </si>
+  <si>
+    <t>Conveyor Lift Mk.3</t>
+  </si>
+  <si>
+    <t>Conveyor Lift Mk.4</t>
+  </si>
+  <si>
+    <t>Bauxite</t>
+  </si>
+  <si>
+    <t>SAM</t>
+  </si>
+  <si>
+    <t>Uranium</t>
+  </si>
+  <si>
+    <t>coal</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>input_1_qty</t>
+  </si>
+  <si>
+    <t>input_2_qty</t>
+  </si>
+  <si>
+    <t>input_3_qty</t>
+  </si>
+  <si>
+    <t>input_4_qty</t>
+  </si>
+  <si>
+    <t>input_mat_1</t>
+  </si>
+  <si>
+    <t>input_mat_2</t>
+  </si>
+  <si>
+    <t>input_mat_3</t>
+  </si>
+  <si>
+    <t>input_mat_4</t>
+  </si>
+  <si>
+    <t>craft_time_unit</t>
+  </si>
+  <si>
+    <t>pcs/min</t>
+  </si>
+  <si>
+    <t>item_qty</t>
+  </si>
+  <si>
+    <t>crafted_in</t>
+  </si>
+  <si>
+    <t>craft_time</t>
+  </si>
+  <si>
+    <t>power_gen</t>
+  </si>
+  <si>
+    <t>power_gen_unit</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>input_mat_1_unit</t>
+  </si>
+  <si>
+    <t>input_mat_2_unit</t>
+  </si>
+  <si>
+    <t>input_mat_3_unit</t>
+  </si>
+  <si>
+    <t>input_mat_4_unit</t>
+  </si>
+  <si>
+    <t>pcs</t>
+  </si>
+  <si>
+    <t>m3/min</t>
+  </si>
+  <si>
+    <t>power_unit</t>
+  </si>
+  <si>
+    <t>power_consumption</t>
+  </si>
+  <si>
+    <t>capacity_unit</t>
+  </si>
+  <si>
+    <t>capacity</t>
   </si>
 </sst>
 </file>
@@ -734,81 +821,172 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{841FB181-CBC0-4A34-86F6-94FA4ACCE032}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="61.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>130</v>
+      </c>
+      <c r="E8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>117</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E9" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -818,2205 +996,2228 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45C4349C-A20E-4466-BDDA-F12F53635295}">
-  <dimension ref="A1:M77"/>
+  <dimension ref="A1:Q77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:M2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="61.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>131</v>
       </c>
       <c r="C1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J1" t="s">
+        <v>138</v>
+      </c>
+      <c r="K1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L1" t="s">
+        <v>123</v>
+      </c>
+      <c r="M1" t="s">
+        <v>139</v>
+      </c>
+      <c r="N1" t="s">
+        <v>128</v>
+      </c>
+      <c r="O1" t="s">
+        <v>124</v>
+      </c>
+      <c r="P1" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" t="s">
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="L1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="M2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="M4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
+      <c r="D5" t="s">
+        <v>130</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>2</v>
       </c>
-      <c r="M5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6">
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>130</v>
       </c>
       <c r="E6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="s">
         <v>9</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="M6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>130</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
-      <c r="M7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>12</v>
       </c>
       <c r="C8">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>130</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>2</v>
       </c>
-      <c r="M8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>36</v>
       </c>
       <c r="C9">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
-      <c r="M9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B10">
         <v>3</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>130</v>
       </c>
       <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>16</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="M10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>28</v>
       </c>
       <c r="B11">
         <v>9</v>
       </c>
       <c r="C11">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>130</v>
       </c>
       <c r="E11" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>2</v>
       </c>
-      <c r="M11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B12">
         <v>9</v>
       </c>
       <c r="C12">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
-      <c r="M12" t="s">
+      <c r="Q12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>32</v>
-      </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>130</v>
       </c>
       <c r="E13" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F13">
         <v>2</v>
       </c>
-      <c r="M13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B14">
         <v>5</v>
       </c>
       <c r="C14">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>130</v>
       </c>
       <c r="E14" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F14">
         <v>3</v>
       </c>
-      <c r="G14" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14">
+      <c r="H14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14">
         <v>2</v>
       </c>
-      <c r="M14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>130</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="F15">
         <v>3</v>
       </c>
-      <c r="M15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B16">
         <v>3</v>
       </c>
       <c r="C16">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="E16" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="F16">
         <v>4</v>
       </c>
-      <c r="G16" t="s">
-        <v>40</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="M16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17">
-        <v>4</v>
-      </c>
-      <c r="D17">
-        <v>4</v>
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
+        <v>130</v>
       </c>
       <c r="E17" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F17">
         <v>3</v>
       </c>
-      <c r="M17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18">
-        <v>4</v>
-      </c>
-      <c r="D18">
-        <v>4</v>
+        <v>15</v>
+      </c>
+      <c r="D18" t="s">
+        <v>130</v>
       </c>
       <c r="E18" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
-      <c r="M18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B19">
         <v>3</v>
       </c>
       <c r="C19">
-        <v>8</v>
-      </c>
-      <c r="D19">
-        <v>5</v>
+        <v>7.5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>130</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="F19">
         <v>4</v>
       </c>
-      <c r="M19" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B20">
         <v>9</v>
       </c>
       <c r="C20">
-        <v>16</v>
+        <v>3.75</v>
       </c>
       <c r="D20" t="s">
-        <v>34</v>
+        <v>130</v>
       </c>
       <c r="E20" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="F20">
         <v>8</v>
       </c>
-      <c r="G20" t="s">
-        <v>47</v>
-      </c>
-      <c r="H20">
+      <c r="H20" t="s">
+        <v>33</v>
+      </c>
+      <c r="I20">
         <v>5</v>
       </c>
-      <c r="M20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B21">
         <v>4</v>
       </c>
       <c r="C21">
-        <v>8</v>
-      </c>
-      <c r="D21">
-        <v>5</v>
+        <v>7.5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>130</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="F21">
         <v>4</v>
       </c>
-      <c r="M21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B22">
         <v>5</v>
       </c>
       <c r="C22">
-        <v>8</v>
-      </c>
-      <c r="D22">
-        <v>5</v>
+        <v>7.5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>130</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="F22">
         <v>8</v>
       </c>
-      <c r="M22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B23">
         <v>6</v>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>130</v>
       </c>
       <c r="E23" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="F23">
         <v>10</v>
       </c>
-      <c r="M23" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="B24">
         <v>25</v>
       </c>
       <c r="C24">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D24" t="s">
-        <v>51</v>
+        <v>130</v>
       </c>
       <c r="E24" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="F24">
         <v>5</v>
       </c>
-      <c r="M24" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="B25">
         <v>10</v>
       </c>
       <c r="C25">
-        <v>4</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="D25" t="s">
+        <v>130</v>
       </c>
       <c r="E25" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="F25">
         <v>10</v>
       </c>
-      <c r="M25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="B26">
         <v>100</v>
       </c>
       <c r="C26">
-        <v>4</v>
-      </c>
-      <c r="D26">
-        <v>3</v>
+        <v>15</v>
+      </c>
+      <c r="D26" t="s">
+        <v>130</v>
       </c>
       <c r="E26" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
-      <c r="M26" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="B27">
         <v>2</v>
       </c>
       <c r="C27">
-        <v>4</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="D27" t="s">
+        <v>130</v>
       </c>
       <c r="E27" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="F27">
         <v>4</v>
       </c>
-      <c r="M27" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
       <c r="C28">
-        <v>10</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="D28" t="s">
+        <v>130</v>
       </c>
       <c r="E28" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
-      <c r="M28" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="B29">
         <v>2</v>
       </c>
       <c r="C29">
-        <v>15</v>
-      </c>
-      <c r="D29">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
+        <v>130</v>
       </c>
       <c r="E29" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
-      <c r="M29" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="B30">
         <v>5</v>
       </c>
       <c r="C30">
-        <v>20</v>
-      </c>
-      <c r="D30">
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="D30" t="s">
+        <v>130</v>
       </c>
       <c r="E30" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
-      <c r="M30" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
       <c r="C31">
-        <v>4</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="D31" t="s">
+        <v>130</v>
       </c>
       <c r="E31" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
-      <c r="G31" t="s">
-        <v>58</v>
-      </c>
-      <c r="H31">
+      <c r="H31" t="s">
+        <v>43</v>
+      </c>
+      <c r="I31">
         <v>5</v>
       </c>
-      <c r="M31" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B32">
         <v>2</v>
       </c>
       <c r="C32">
-        <v>4</v>
-      </c>
-      <c r="D32">
-        <v>4</v>
+        <v>15</v>
+      </c>
+      <c r="D32" t="s">
+        <v>130</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>3</v>
       </c>
-      <c r="G32" t="s">
-        <v>66</v>
-      </c>
-      <c r="H32">
-        <v>3</v>
-      </c>
-      <c r="M32" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H32" t="s">
+        <v>51</v>
+      </c>
+      <c r="I32">
+        <v>3</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="B33">
         <v>6</v>
       </c>
       <c r="C33">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="D33" t="s">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="E33" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F33">
         <v>3</v>
       </c>
-      <c r="G33" t="s">
-        <v>66</v>
-      </c>
-      <c r="H33">
+      <c r="H33" t="s">
+        <v>51</v>
+      </c>
+      <c r="I33">
         <v>6</v>
       </c>
-      <c r="M33" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="B34">
         <v>20</v>
       </c>
       <c r="C34">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="D34" t="s">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>6</v>
       </c>
-      <c r="G34" t="s">
-        <v>69</v>
-      </c>
-      <c r="H34">
-        <v>3</v>
-      </c>
-      <c r="M34" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H34" t="s">
+        <v>54</v>
+      </c>
+      <c r="I34">
+        <v>3</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
       <c r="C35">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D35" t="s">
-        <v>22</v>
+        <v>130</v>
       </c>
       <c r="E35" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F35">
         <v>4</v>
       </c>
-      <c r="G35" t="s">
-        <v>21</v>
-      </c>
-      <c r="H35">
+      <c r="H35" t="s">
+        <v>11</v>
+      </c>
+      <c r="I35">
         <v>24</v>
       </c>
-      <c r="M35" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q35" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="B36">
         <v>3</v>
       </c>
       <c r="C36">
-        <v>24</v>
+        <v>2.5</v>
       </c>
       <c r="D36" t="s">
-        <v>72</v>
+        <v>130</v>
       </c>
       <c r="E36" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F36">
         <v>6</v>
       </c>
-      <c r="G36" t="s">
-        <v>27</v>
-      </c>
-      <c r="H36">
+      <c r="H36" t="s">
+        <v>15</v>
+      </c>
+      <c r="I36">
         <v>30</v>
       </c>
-      <c r="M36" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q36" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="B37">
         <v>3</v>
       </c>
       <c r="C37">
-        <v>24</v>
+        <v>2.5</v>
       </c>
       <c r="D37" t="s">
-        <v>72</v>
+        <v>130</v>
       </c>
       <c r="E37" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F37">
         <v>10</v>
       </c>
-      <c r="G37" t="s">
-        <v>21</v>
-      </c>
-      <c r="H37">
+      <c r="H37" t="s">
+        <v>11</v>
+      </c>
+      <c r="I37">
         <v>24</v>
       </c>
-      <c r="M37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
       <c r="C38">
-        <v>15</v>
-      </c>
-      <c r="D38">
         <v>4</v>
       </c>
+      <c r="D38" t="s">
+        <v>130</v>
+      </c>
       <c r="E38" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F38">
         <v>4</v>
       </c>
-      <c r="G38" t="s">
-        <v>37</v>
-      </c>
-      <c r="H38">
+      <c r="H38" t="s">
+        <v>23</v>
+      </c>
+      <c r="I38">
         <v>5</v>
       </c>
-      <c r="M38" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q38" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="B39">
         <v>3</v>
       </c>
       <c r="C39">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="E39" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="F39">
         <v>18</v>
       </c>
-      <c r="G39" t="s">
-        <v>37</v>
-      </c>
-      <c r="H39">
+      <c r="H39" t="s">
+        <v>23</v>
+      </c>
+      <c r="I39">
         <v>10</v>
       </c>
-      <c r="M39" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q39" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="B40">
         <v>1</v>
       </c>
       <c r="C40">
-        <v>15</v>
-      </c>
-      <c r="D40">
+        <v>4</v>
+      </c>
+      <c r="D40" t="s">
+        <v>130</v>
+      </c>
+      <c r="E40" t="s">
+        <v>55</v>
+      </c>
+      <c r="F40">
+        <v>3</v>
+      </c>
+      <c r="H40" t="s">
+        <v>10</v>
+      </c>
+      <c r="I40">
+        <v>6</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>61</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41">
         <v>2</v>
       </c>
-      <c r="E40" t="s">
-        <v>70</v>
-      </c>
-      <c r="F40">
-        <v>3</v>
-      </c>
-      <c r="G40" t="s">
-        <v>20</v>
-      </c>
-      <c r="H40">
-        <v>6</v>
-      </c>
-      <c r="M40" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>77</v>
-      </c>
-      <c r="B41">
-        <v>3</v>
-      </c>
-      <c r="C41">
-        <v>30</v>
-      </c>
       <c r="D41" t="s">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="E41" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="F41">
         <v>6</v>
       </c>
-      <c r="G41" t="s">
-        <v>42</v>
-      </c>
-      <c r="H41">
+      <c r="H41" t="s">
+        <v>28</v>
+      </c>
+      <c r="I41">
         <v>6</v>
       </c>
-      <c r="M41" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q41" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="B42">
         <v>1</v>
       </c>
       <c r="C42">
+        <v>6</v>
+      </c>
+      <c r="D42" t="s">
+        <v>130</v>
+      </c>
+      <c r="E42" t="s">
         <v>10</v>
       </c>
-      <c r="D42">
-        <v>2</v>
-      </c>
-      <c r="E42" t="s">
-        <v>20</v>
-      </c>
       <c r="F42">
         <v>3</v>
       </c>
-      <c r="G42" t="s">
-        <v>21</v>
-      </c>
-      <c r="H42">
+      <c r="H42" t="s">
+        <v>11</v>
+      </c>
+      <c r="I42">
         <v>22</v>
       </c>
-      <c r="M42" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q42" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="B43">
         <v>3</v>
       </c>
       <c r="C43">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D43" t="s">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="E43" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="F43">
         <v>6</v>
       </c>
-      <c r="G43" t="s">
-        <v>27</v>
-      </c>
-      <c r="H43">
+      <c r="H43" t="s">
+        <v>15</v>
+      </c>
+      <c r="I43">
         <v>20</v>
       </c>
-      <c r="M43" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q43" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="B44">
         <v>1</v>
       </c>
       <c r="C44">
+        <v>6</v>
+      </c>
+      <c r="D44" t="s">
+        <v>130</v>
+      </c>
+      <c r="E44" t="s">
+        <v>28</v>
+      </c>
+      <c r="F44">
+        <v>3</v>
+      </c>
+      <c r="H44" t="s">
+        <v>15</v>
+      </c>
+      <c r="I44">
         <v>10</v>
       </c>
-      <c r="D44">
-        <v>4</v>
-      </c>
-      <c r="E44" t="s">
-        <v>42</v>
-      </c>
-      <c r="F44">
-        <v>3</v>
-      </c>
-      <c r="G44" t="s">
-        <v>27</v>
-      </c>
-      <c r="H44">
-        <v>10</v>
-      </c>
-      <c r="M44" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q44" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="B45">
         <v>3</v>
       </c>
       <c r="C45">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D45" t="s">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="E45" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="F45">
         <v>6</v>
       </c>
-      <c r="G45" t="s">
-        <v>82</v>
-      </c>
-      <c r="H45">
+      <c r="H45" t="s">
+        <v>66</v>
+      </c>
+      <c r="I45">
         <v>25</v>
       </c>
-      <c r="M45" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q45" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B46">
         <v>1</v>
       </c>
       <c r="C46">
-        <v>12</v>
-      </c>
-      <c r="D46">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D46" t="s">
+        <v>130</v>
       </c>
       <c r="E46" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="F46">
         <v>2</v>
       </c>
-      <c r="G46" t="s">
-        <v>80</v>
-      </c>
-      <c r="H46">
+      <c r="H46" t="s">
+        <v>64</v>
+      </c>
+      <c r="I46">
         <v>2</v>
       </c>
-      <c r="M46" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q46" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="B47">
         <v>3</v>
       </c>
       <c r="C47">
-        <v>24</v>
+        <v>2.5</v>
       </c>
       <c r="D47" t="s">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="E47" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="F47">
         <v>2</v>
       </c>
-      <c r="G47" t="s">
-        <v>80</v>
-      </c>
-      <c r="H47">
+      <c r="H47" t="s">
+        <v>64</v>
+      </c>
+      <c r="I47">
         <v>2</v>
       </c>
-      <c r="I47" t="s">
-        <v>85</v>
-      </c>
-      <c r="J47">
-        <v>1</v>
-      </c>
-      <c r="M47" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K47" t="s">
+        <v>69</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
       <c r="C48">
-        <v>12</v>
-      </c>
-      <c r="D48">
         <v>5</v>
       </c>
+      <c r="D48" t="s">
+        <v>130</v>
+      </c>
       <c r="E48" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F48">
         <v>6</v>
       </c>
-      <c r="G48" t="s">
-        <v>27</v>
-      </c>
-      <c r="H48">
+      <c r="H48" t="s">
+        <v>15</v>
+      </c>
+      <c r="I48">
         <v>12</v>
       </c>
-      <c r="M48" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="B49">
         <v>3</v>
       </c>
       <c r="C49">
-        <v>24</v>
+        <v>2.5</v>
       </c>
       <c r="D49" t="s">
-        <v>34</v>
+        <v>130</v>
       </c>
       <c r="E49" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F49">
         <v>12</v>
       </c>
-      <c r="G49" t="s">
-        <v>82</v>
-      </c>
-      <c r="H49">
+      <c r="H49" t="s">
+        <v>66</v>
+      </c>
+      <c r="I49">
         <v>32</v>
       </c>
-      <c r="M49" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q49" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="B50">
         <v>3</v>
       </c>
       <c r="C50">
-        <v>24</v>
+        <v>2.5</v>
       </c>
       <c r="D50" t="s">
-        <v>34</v>
+        <v>130</v>
       </c>
       <c r="E50" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="F50">
         <v>16</v>
       </c>
-      <c r="G50" t="s">
-        <v>27</v>
-      </c>
-      <c r="H50">
+      <c r="H50" t="s">
+        <v>15</v>
+      </c>
+      <c r="I50">
         <v>24</v>
       </c>
-      <c r="M50" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q50" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="B51">
         <v>1</v>
       </c>
       <c r="C51">
-        <v>30</v>
-      </c>
-      <c r="D51">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="D51" t="s">
+        <v>130</v>
       </c>
       <c r="E51" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="F51">
         <v>5</v>
       </c>
-      <c r="G51" t="s">
-        <v>74</v>
-      </c>
-      <c r="H51">
+      <c r="H51" t="s">
+        <v>58</v>
+      </c>
+      <c r="I51">
         <v>5</v>
       </c>
-      <c r="I51" t="s">
-        <v>42</v>
-      </c>
-      <c r="J51">
+      <c r="K51" t="s">
+        <v>28</v>
+      </c>
+      <c r="L51">
         <v>15</v>
       </c>
-      <c r="K51" t="s">
-        <v>21</v>
-      </c>
-      <c r="L51">
+      <c r="N51" t="s">
+        <v>11</v>
+      </c>
+      <c r="O51">
         <v>90</v>
       </c>
-      <c r="M51" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q51" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="B52">
         <v>3</v>
       </c>
       <c r="C52">
-        <v>64</v>
+        <v>0.9375</v>
       </c>
       <c r="D52" t="s">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="E52" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="F52">
         <v>8</v>
       </c>
-      <c r="G52" t="s">
-        <v>74</v>
-      </c>
-      <c r="H52">
+      <c r="H52" t="s">
+        <v>58</v>
+      </c>
+      <c r="I52">
         <v>10</v>
       </c>
-      <c r="I52" t="s">
-        <v>42</v>
-      </c>
-      <c r="J52">
+      <c r="K52" t="s">
+        <v>28</v>
+      </c>
+      <c r="L52">
         <v>36</v>
       </c>
-      <c r="K52" t="s">
-        <v>37</v>
-      </c>
-      <c r="L52">
+      <c r="N52" t="s">
+        <v>23</v>
+      </c>
+      <c r="O52">
         <v>25</v>
       </c>
-      <c r="M52" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q52" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="B53">
         <v>1</v>
       </c>
       <c r="C53">
-        <v>32</v>
-      </c>
-      <c r="D53">
-        <v>5</v>
+        <v>1.875</v>
+      </c>
+      <c r="D53" t="s">
+        <v>130</v>
       </c>
       <c r="E53" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="F53">
         <v>5</v>
       </c>
-      <c r="G53" t="s">
-        <v>32</v>
-      </c>
-      <c r="H53">
+      <c r="H53" t="s">
+        <v>19</v>
+      </c>
+      <c r="I53">
         <v>12</v>
       </c>
-      <c r="I53" t="s">
-        <v>43</v>
-      </c>
-      <c r="J53">
+      <c r="K53" t="s">
+        <v>29</v>
+      </c>
+      <c r="L53">
         <v>18</v>
       </c>
-      <c r="K53" t="s">
-        <v>21</v>
-      </c>
-      <c r="L53">
+      <c r="N53" t="s">
+        <v>11</v>
+      </c>
+      <c r="O53">
         <v>60</v>
       </c>
-      <c r="M53" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q53" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="B54">
         <v>3</v>
       </c>
       <c r="C54">
-        <v>64</v>
+        <v>0.9375</v>
       </c>
       <c r="D54" t="s">
-        <v>34</v>
+        <v>130</v>
       </c>
       <c r="E54" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="F54">
         <v>10</v>
       </c>
-      <c r="G54" t="s">
-        <v>82</v>
-      </c>
-      <c r="H54">
+      <c r="H54" t="s">
+        <v>66</v>
+      </c>
+      <c r="I54">
         <v>112</v>
       </c>
-      <c r="I54" t="s">
-        <v>35</v>
-      </c>
-      <c r="J54">
+      <c r="K54" t="s">
+        <v>21</v>
+      </c>
+      <c r="L54">
         <v>48</v>
       </c>
-      <c r="M54" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q54" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="B55">
         <v>1</v>
       </c>
       <c r="C55">
-        <v>24</v>
+        <v>2.5</v>
       </c>
       <c r="D55" t="s">
-        <v>34</v>
+        <v>130</v>
       </c>
       <c r="E55" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="F55">
         <v>2</v>
       </c>
-      <c r="G55" t="s">
-        <v>85</v>
-      </c>
-      <c r="H55">
-        <v>1</v>
-      </c>
-      <c r="M55" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H55" t="s">
+        <v>69</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B56">
         <v>1</v>
       </c>
       <c r="C56">
-        <v>4</v>
-      </c>
-      <c r="D56">
-        <v>3</v>
+        <v>15</v>
+      </c>
+      <c r="D56" t="s">
+        <v>130</v>
       </c>
       <c r="E56" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="F56">
         <v>4</v>
       </c>
-      <c r="M56" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q56" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="B57">
         <v>4</v>
       </c>
       <c r="C57">
-        <v>4</v>
-      </c>
-      <c r="D57">
-        <v>3</v>
+        <v>15</v>
+      </c>
+      <c r="D57" t="s">
+        <v>130</v>
       </c>
       <c r="E57" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F57">
         <v>1</v>
       </c>
-      <c r="M57" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="B58">
         <v>12</v>
       </c>
       <c r="C58">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="D58" t="s">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="E58" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F58">
         <v>1</v>
       </c>
-      <c r="G58" t="s">
-        <v>16</v>
-      </c>
-      <c r="H58">
+      <c r="H58" t="s">
+        <v>7</v>
+      </c>
+      <c r="I58">
         <v>2</v>
       </c>
-      <c r="M58" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q58" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="B59">
         <v>1</v>
       </c>
       <c r="C59">
-        <v>12</v>
-      </c>
-      <c r="D59">
         <v>5</v>
       </c>
+      <c r="D59" t="s">
+        <v>130</v>
+      </c>
       <c r="E59" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="F59">
         <v>1</v>
       </c>
-      <c r="G59" t="s">
+      <c r="H59" t="s">
+        <v>66</v>
+      </c>
+      <c r="I59">
+        <v>18</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>82</v>
       </c>
-      <c r="H59">
-        <v>18</v>
-      </c>
-      <c r="M59" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>98</v>
-      </c>
       <c r="B60">
         <v>1</v>
       </c>
       <c r="C60">
-        <v>24</v>
-      </c>
-      <c r="D60">
-        <v>5</v>
+        <v>2.5</v>
+      </c>
+      <c r="D60" t="s">
+        <v>130</v>
       </c>
       <c r="E60" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="F60">
         <v>40</v>
       </c>
-      <c r="G60" t="s">
-        <v>32</v>
-      </c>
-      <c r="H60">
+      <c r="H60" t="s">
+        <v>19</v>
+      </c>
+      <c r="I60">
         <v>10</v>
       </c>
-      <c r="I60" t="s">
-        <v>43</v>
-      </c>
-      <c r="J60">
+      <c r="K60" t="s">
+        <v>29</v>
+      </c>
+      <c r="L60">
         <v>6</v>
       </c>
-      <c r="M60" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q60" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="B61">
         <v>3</v>
       </c>
       <c r="C61">
-        <v>48</v>
+        <v>1.25</v>
       </c>
       <c r="D61" t="s">
-        <v>34</v>
+        <v>130</v>
       </c>
       <c r="E61" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="F61">
         <v>66</v>
       </c>
-      <c r="G61" t="s">
-        <v>40</v>
-      </c>
-      <c r="H61">
+      <c r="H61" t="s">
+        <v>26</v>
+      </c>
+      <c r="I61">
         <v>48</v>
       </c>
-      <c r="I61" t="s">
-        <v>35</v>
-      </c>
-      <c r="J61">
+      <c r="K61" t="s">
+        <v>21</v>
+      </c>
+      <c r="L61">
         <v>18</v>
       </c>
-      <c r="M61" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q61" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="B62">
         <v>1</v>
       </c>
       <c r="C62">
-        <v>32</v>
-      </c>
-      <c r="D62">
-        <v>5</v>
+        <v>1.875</v>
+      </c>
+      <c r="D62" t="s">
+        <v>130</v>
       </c>
       <c r="E62" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="F62">
         <v>2</v>
       </c>
-      <c r="G62" t="s">
-        <v>97</v>
-      </c>
-      <c r="H62">
+      <c r="H62" t="s">
+        <v>81</v>
+      </c>
+      <c r="I62">
         <v>2</v>
       </c>
-      <c r="I62" t="s">
-        <v>98</v>
-      </c>
-      <c r="J62">
+      <c r="K62" t="s">
+        <v>82</v>
+      </c>
+      <c r="L62">
         <v>2</v>
       </c>
-      <c r="K62" t="s">
-        <v>43</v>
-      </c>
-      <c r="L62">
+      <c r="N62" t="s">
+        <v>29</v>
+      </c>
+      <c r="O62">
         <v>21</v>
       </c>
-      <c r="M62" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q62" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="B63">
         <v>1</v>
       </c>
       <c r="C63">
-        <v>8</v>
-      </c>
-      <c r="D63">
-        <v>6</v>
+        <v>7.5</v>
+      </c>
+      <c r="D63" t="s">
+        <v>130</v>
       </c>
       <c r="E63" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="F63">
         <v>5</v>
       </c>
-      <c r="G63" t="s">
-        <v>35</v>
-      </c>
-      <c r="H63">
+      <c r="H63" t="s">
+        <v>21</v>
+      </c>
+      <c r="I63">
         <v>2</v>
       </c>
-      <c r="I63" t="s">
-        <v>65</v>
-      </c>
-      <c r="J63">
+      <c r="K63" t="s">
+        <v>50</v>
+      </c>
+      <c r="L63">
         <v>2</v>
       </c>
-      <c r="M63" t="s">
+      <c r="Q63" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>102</v>
-      </c>
       <c r="B64">
         <v>1</v>
       </c>
       <c r="C64">
-        <v>4</v>
-      </c>
-      <c r="D64">
-        <v>3</v>
+        <v>15</v>
+      </c>
+      <c r="D64" t="s">
+        <v>130</v>
       </c>
       <c r="E64" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F64">
         <v>1</v>
       </c>
-      <c r="M64" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q64" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="B65">
         <v>1</v>
       </c>
       <c r="C65">
-        <v>8</v>
-      </c>
-      <c r="D65">
-        <v>4</v>
+        <v>7.5</v>
+      </c>
+      <c r="D65" t="s">
+        <v>130</v>
       </c>
       <c r="E65" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="F65">
         <v>1</v>
       </c>
-      <c r="G65" t="s">
-        <v>104</v>
-      </c>
-      <c r="H65">
+      <c r="H65" t="s">
+        <v>88</v>
+      </c>
+      <c r="I65">
         <v>2</v>
       </c>
-      <c r="M65" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q65" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="B66">
         <v>4</v>
       </c>
       <c r="C66">
-        <v>16</v>
+        <v>3.75</v>
       </c>
       <c r="D66" t="s">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="E66" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="F66">
         <v>2</v>
       </c>
-      <c r="G66" t="s">
-        <v>69</v>
-      </c>
-      <c r="H66">
-        <v>1</v>
-      </c>
-      <c r="M66" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H66" t="s">
+        <v>54</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="B67">
         <v>1</v>
       </c>
       <c r="C67">
-        <v>20</v>
-      </c>
-      <c r="D67">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="D67" t="s">
+        <v>130</v>
       </c>
       <c r="E67" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="F67">
         <v>5</v>
       </c>
-      <c r="G67" t="s">
-        <v>42</v>
-      </c>
-      <c r="H67">
+      <c r="H67" t="s">
+        <v>28</v>
+      </c>
+      <c r="I67">
         <v>5</v>
       </c>
-      <c r="I67" t="s">
-        <v>107</v>
-      </c>
-      <c r="J67">
-        <v>1</v>
-      </c>
-      <c r="M67" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K67" t="s">
+        <v>91</v>
+      </c>
+      <c r="L67">
+        <v>1</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="B68">
         <v>3</v>
       </c>
       <c r="C68">
-        <v>40</v>
+        <v>1.5</v>
       </c>
       <c r="D68" t="s">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="E68" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="F68">
         <v>10</v>
       </c>
-      <c r="G68" t="s">
-        <v>42</v>
-      </c>
-      <c r="H68">
+      <c r="H68" t="s">
+        <v>28</v>
+      </c>
+      <c r="I68">
         <v>10</v>
       </c>
-      <c r="I68" t="s">
-        <v>85</v>
-      </c>
-      <c r="J68">
-        <v>1</v>
-      </c>
-      <c r="M68" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K68" t="s">
+        <v>69</v>
+      </c>
+      <c r="L68">
+        <v>1</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="B69">
         <v>4</v>
       </c>
-      <c r="D69">
-        <v>5</v>
+      <c r="C69" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D69" t="s">
+        <v>130</v>
       </c>
       <c r="E69" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="F69">
         <v>1</v>
       </c>
-      <c r="G69" t="s">
-        <v>42</v>
-      </c>
-      <c r="H69">
+      <c r="H69" t="s">
+        <v>28</v>
+      </c>
+      <c r="I69">
         <v>4</v>
       </c>
-      <c r="M69" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q69" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="B70">
         <v>1</v>
       </c>
       <c r="C70">
-        <v>4</v>
-      </c>
-      <c r="D70">
-        <v>4</v>
+        <v>15</v>
+      </c>
+      <c r="D70" t="s">
+        <v>130</v>
       </c>
       <c r="E70" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="F70">
         <v>2</v>
       </c>
-      <c r="M70" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q70" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="B71">
         <v>1</v>
       </c>
       <c r="C71">
-        <v>32</v>
-      </c>
-      <c r="D71">
-        <v>4</v>
+        <v>1.875</v>
+      </c>
+      <c r="D71" t="s">
+        <v>130</v>
       </c>
       <c r="E71" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="F71">
         <v>10</v>
       </c>
-      <c r="G71" t="s">
-        <v>32</v>
-      </c>
-      <c r="H71">
+      <c r="H71" t="s">
+        <v>19</v>
+      </c>
+      <c r="I71">
         <v>14</v>
       </c>
-      <c r="I71" t="s">
+      <c r="K71" t="s">
+        <v>55</v>
+      </c>
+      <c r="L71">
+        <v>4</v>
+      </c>
+      <c r="Q71" t="s">
         <v>70</v>
       </c>
-      <c r="J71">
-        <v>4</v>
-      </c>
-      <c r="M71" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="B72">
         <v>3</v>
       </c>
       <c r="C72">
-        <v>64</v>
+        <v>0.9375</v>
       </c>
       <c r="D72" t="s">
-        <v>34</v>
+        <v>130</v>
       </c>
       <c r="E72" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="F72">
         <v>20</v>
       </c>
-      <c r="G72" t="s">
-        <v>35</v>
-      </c>
-      <c r="H72">
+      <c r="H72" t="s">
+        <v>21</v>
+      </c>
+      <c r="I72">
         <v>24</v>
       </c>
-      <c r="I72" t="s">
-        <v>97</v>
-      </c>
-      <c r="J72">
-        <v>1</v>
-      </c>
-      <c r="M72" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K72" t="s">
+        <v>81</v>
+      </c>
+      <c r="L72">
+        <v>1</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B73">
         <v>3</v>
       </c>
       <c r="C73">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="E73" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="F73">
         <v>2</v>
       </c>
-      <c r="G73" t="s">
-        <v>104</v>
-      </c>
-      <c r="H73">
+      <c r="H73" t="s">
+        <v>88</v>
+      </c>
+      <c r="I73">
         <v>2</v>
       </c>
-      <c r="M73" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q73" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="B74">
         <v>1</v>
       </c>
       <c r="C74">
+        <v>7.5</v>
+      </c>
+      <c r="D74" t="s">
+        <v>130</v>
+      </c>
+      <c r="E74" t="s">
         <v>8</v>
       </c>
-      <c r="D74">
-        <v>1</v>
-      </c>
-      <c r="E74" t="s">
-        <v>18</v>
-      </c>
       <c r="F74">
         <v>3</v>
       </c>
-      <c r="G74" t="s">
-        <v>20</v>
-      </c>
-      <c r="H74">
-        <v>1</v>
-      </c>
-      <c r="I74" t="s">
-        <v>27</v>
-      </c>
-      <c r="J74">
+      <c r="H74" t="s">
+        <v>10</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="K74" t="s">
         <v>15</v>
       </c>
-      <c r="K74" t="s">
-        <v>32</v>
-      </c>
       <c r="L74">
+        <v>15</v>
+      </c>
+      <c r="N74" t="s">
+        <v>19</v>
+      </c>
+      <c r="O74">
         <v>2</v>
       </c>
-      <c r="M74" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q74" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="B75">
         <v>5</v>
       </c>
       <c r="C75">
-        <v>32</v>
+        <v>1.875</v>
       </c>
       <c r="D75" t="s">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="E75" t="s">
+        <v>14</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="H75" t="s">
+        <v>28</v>
+      </c>
+      <c r="I75">
+        <v>4</v>
+      </c>
+      <c r="K75" t="s">
+        <v>69</v>
+      </c>
+      <c r="L75">
+        <v>1</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>26</v>
       </c>
-      <c r="F75">
-        <v>1</v>
-      </c>
-      <c r="G75" t="s">
-        <v>42</v>
-      </c>
-      <c r="H75">
-        <v>4</v>
-      </c>
-      <c r="I75" t="s">
-        <v>85</v>
-      </c>
-      <c r="J75">
-        <v>1</v>
-      </c>
-      <c r="M75" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>40</v>
-      </c>
       <c r="B76">
         <v>3</v>
       </c>
       <c r="C76">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D76" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="E76" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="F76">
         <v>2</v>
       </c>
-      <c r="M76" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q76" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="B77">
         <v>9</v>
       </c>
       <c r="C77">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="D77" t="s">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="E77" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="F77">
         <v>4</v>
       </c>
-      <c r="G77" t="s">
-        <v>116</v>
-      </c>
-      <c r="H77">
+      <c r="H77" t="s">
+        <v>99</v>
+      </c>
+      <c r="I77">
         <v>2</v>
       </c>
-      <c r="M77" t="s">
-        <v>36</v>
+      <c r="Q77" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -3026,40 +3227,363 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{068133EA-ECC4-4225-BB7A-362E8840A70A}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>141</v>
+      </c>
+      <c r="G3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4">
+        <v>150</v>
+      </c>
+      <c r="C4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5">
+        <v>200</v>
+      </c>
+      <c r="C5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F544B06-6065-4C8E-AAF6-1E1D3DDA6940}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8">
+        <v>55</v>
+      </c>
+      <c r="C8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CE1EBD-3035-49E7-A7DE-A11C08FF08C1}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2">
+        <v>60</v>
+      </c>
+      <c r="C2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3">
+        <v>120</v>
+      </c>
+      <c r="C3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4">
+        <v>270</v>
+      </c>
+      <c r="C4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5">
+        <v>450</v>
+      </c>
+      <c r="C5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6">
+        <v>60</v>
+      </c>
+      <c r="C6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7">
+        <v>120</v>
+      </c>
+      <c r="C7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8">
+        <v>270</v>
+      </c>
+      <c r="C8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9">
+        <v>450</v>
+      </c>
+      <c r="C9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Satisfactory_calculator/item_list.xlsx
+++ b/Satisfactory_calculator/item_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bjarki\source\repos\Satisfactory_calculator\Satisfactory_calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2CBB592-CCDA-4898-9E0E-333AACA4FCA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4CFEAD-CA80-44D9-9E70-BA1B3C25050C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21000" activeTab="1" xr2:uid="{CF63DFE2-E3F1-40A6-9DC4-F78A2094206C}"/>
+    <workbookView xWindow="5340" yWindow="2760" windowWidth="30405" windowHeight="14295" activeTab="3" xr2:uid="{CF63DFE2-E3F1-40A6-9DC4-F78A2094206C}"/>
   </bookViews>
   <sheets>
     <sheet name="raw_material" sheetId="4" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8234" uniqueCount="1346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8234" uniqueCount="1348">
   <si>
     <t>Crafted In</t>
   </si>
@@ -4071,6 +4071,12 @@
   </si>
   <si>
     <t>Dissolved Silica</t>
+  </si>
+  <si>
+    <t>item_qty_1</t>
+  </si>
+  <si>
+    <t>item_qty_unit_1</t>
   </si>
 </sst>
 </file>
@@ -4134,10 +4140,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -7286,33 +7292,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45C4349C-A20E-4466-BDDA-F12F53635295}">
   <dimension ref="A1:V316"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="A244" sqref="A244:XFD244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7324,10 +7330,10 @@
         <v>121</v>
       </c>
       <c r="C1" t="s">
-        <v>78</v>
+        <v>1346</v>
       </c>
       <c r="D1" t="s">
-        <v>119</v>
+        <v>1347</v>
       </c>
       <c r="E1" t="s">
         <v>1328</v>
@@ -7409,7 +7415,7 @@
       <c r="J2" t="s">
         <v>1337</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="4">
         <v>5</v>
       </c>
       <c r="L2" t="s">
@@ -21772,7 +21778,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F544B06-6065-4C8E-AAF6-1E1D3DDA6940}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B57" sqref="B56:B57"/>
     </sheetView>
   </sheetViews>
@@ -22032,8 +22038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FA56A5F-A7B5-4952-A980-96BA279343B3}">
   <dimension ref="A1:AK922"/>
   <sheetViews>
-    <sheetView topLeftCell="A608" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A656" sqref="A656:XFD656"/>
+    <sheetView topLeftCell="N472" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C497" sqref="C497:X497"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27470,7 +27476,7 @@
       <c r="AH143" s="1"/>
       <c r="AI143" s="1"/>
       <c r="AJ143" s="2"/>
-      <c r="AK143" s="4"/>
+      <c r="AK143" s="5"/>
     </row>
     <row r="144" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
@@ -27526,7 +27532,7 @@
       <c r="AH144" s="1"/>
       <c r="AI144" s="1"/>
       <c r="AJ144" s="3"/>
-      <c r="AK144" s="4"/>
+      <c r="AK144" s="5"/>
     </row>
     <row r="145" spans="1:37" ht="30" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
@@ -27588,7 +27594,7 @@
       <c r="AH145" s="1"/>
       <c r="AI145" s="1"/>
       <c r="AJ145" s="1"/>
-      <c r="AK145" s="4"/>
+      <c r="AK145" s="5"/>
     </row>
     <row r="146" spans="1:37" ht="30" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
@@ -27842,7 +27848,7 @@
       <c r="AH149" s="1"/>
       <c r="AI149" s="1"/>
       <c r="AJ149" s="2"/>
-      <c r="AK149" s="4"/>
+      <c r="AK149" s="5"/>
     </row>
     <row r="150" spans="1:37" ht="30" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
@@ -27910,7 +27916,7 @@
       <c r="AH150" s="1"/>
       <c r="AI150" s="1"/>
       <c r="AJ150" s="3"/>
-      <c r="AK150" s="4"/>
+      <c r="AK150" s="5"/>
     </row>
     <row r="151" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
@@ -27972,7 +27978,7 @@
       <c r="AH151" s="1"/>
       <c r="AI151" s="1"/>
       <c r="AJ151" s="1"/>
-      <c r="AK151" s="4"/>
+      <c r="AK151" s="5"/>
     </row>
     <row r="152" spans="1:37" ht="30" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
@@ -28096,7 +28102,7 @@
       <c r="AH153" s="1"/>
       <c r="AI153" s="1"/>
       <c r="AJ153" s="2"/>
-      <c r="AK153" s="4"/>
+      <c r="AK153" s="5"/>
     </row>
     <row r="154" spans="1:37" ht="30" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
@@ -28176,7 +28182,7 @@
       <c r="AH154" s="1"/>
       <c r="AI154" s="1"/>
       <c r="AJ154" s="3"/>
-      <c r="AK154" s="4"/>
+      <c r="AK154" s="5"/>
     </row>
     <row r="155" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
@@ -28232,7 +28238,7 @@
       <c r="AH155" s="1"/>
       <c r="AI155" s="1"/>
       <c r="AJ155" s="1"/>
-      <c r="AK155" s="4"/>
+      <c r="AK155" s="5"/>
     </row>
     <row r="156" spans="1:37" ht="30" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
@@ -28424,7 +28430,7 @@
       <c r="AH158" s="1"/>
       <c r="AI158" s="1"/>
       <c r="AJ158" s="2"/>
-      <c r="AK158" s="4"/>
+      <c r="AK158" s="5"/>
     </row>
     <row r="159" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
@@ -28480,7 +28486,7 @@
       <c r="AH159" s="1"/>
       <c r="AI159" s="1"/>
       <c r="AJ159" s="3"/>
-      <c r="AK159" s="4"/>
+      <c r="AK159" s="5"/>
     </row>
     <row r="160" spans="1:37" ht="30" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
@@ -28542,7 +28548,7 @@
       <c r="AH160" s="1"/>
       <c r="AI160" s="1"/>
       <c r="AJ160" s="1"/>
-      <c r="AK160" s="4"/>
+      <c r="AK160" s="5"/>
     </row>
     <row r="161" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
@@ -28610,7 +28616,7 @@
       <c r="AH161" s="1"/>
       <c r="AI161" s="1"/>
       <c r="AJ161" s="2"/>
-      <c r="AK161" s="4"/>
+      <c r="AK161" s="5"/>
     </row>
     <row r="162" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
@@ -28672,7 +28678,7 @@
       <c r="AH162" s="1"/>
       <c r="AI162" s="1"/>
       <c r="AJ162" s="3"/>
-      <c r="AK162" s="4"/>
+      <c r="AK162" s="5"/>
     </row>
     <row r="163" spans="1:37" ht="30" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
@@ -28734,7 +28740,7 @@
       <c r="AH163" s="1"/>
       <c r="AI163" s="1"/>
       <c r="AJ163" s="1"/>
-      <c r="AK163" s="4"/>
+      <c r="AK163" s="5"/>
     </row>
     <row r="164" spans="1:37" ht="45" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
@@ -28802,7 +28808,7 @@
       <c r="AH164" s="1"/>
       <c r="AI164" s="1"/>
       <c r="AJ164" s="3"/>
-      <c r="AK164" s="4"/>
+      <c r="AK164" s="5"/>
     </row>
     <row r="165" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
@@ -28864,7 +28870,7 @@
       <c r="AH165" s="1"/>
       <c r="AI165" s="1"/>
       <c r="AJ165" s="1"/>
-      <c r="AK165" s="4"/>
+      <c r="AK165" s="5"/>
     </row>
     <row r="166" spans="1:37" ht="30" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
@@ -28926,7 +28932,7 @@
       <c r="AH166" s="1"/>
       <c r="AI166" s="1"/>
       <c r="AJ166" s="3"/>
-      <c r="AK166" s="4"/>
+      <c r="AK166" s="5"/>
     </row>
     <row r="167" spans="1:37" ht="30" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
@@ -29000,7 +29006,7 @@
       <c r="AH167" s="1"/>
       <c r="AI167" s="1"/>
       <c r="AJ167" s="1"/>
-      <c r="AK167" s="4"/>
+      <c r="AK167" s="5"/>
     </row>
     <row r="168" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
@@ -29056,7 +29062,7 @@
       <c r="AH168" s="1"/>
       <c r="AI168" s="1"/>
       <c r="AJ168" s="2"/>
-      <c r="AK168" s="4"/>
+      <c r="AK168" s="5"/>
     </row>
     <row r="169" spans="1:37" ht="30" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
@@ -29118,7 +29124,7 @@
       <c r="AH169" s="1"/>
       <c r="AI169" s="1"/>
       <c r="AJ169" s="3"/>
-      <c r="AK169" s="4"/>
+      <c r="AK169" s="5"/>
     </row>
     <row r="170" spans="1:37" ht="45" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
@@ -29180,7 +29186,7 @@
       <c r="AH170" s="1"/>
       <c r="AI170" s="1"/>
       <c r="AJ170" s="1"/>
-      <c r="AK170" s="4"/>
+      <c r="AK170" s="5"/>
     </row>
     <row r="171" spans="1:37" ht="30" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
@@ -29248,7 +29254,7 @@
       <c r="AH171" s="1"/>
       <c r="AI171" s="1"/>
       <c r="AJ171" s="3"/>
-      <c r="AK171" s="4"/>
+      <c r="AK171" s="5"/>
     </row>
     <row r="172" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
@@ -29310,7 +29316,7 @@
       <c r="AH172" s="1"/>
       <c r="AI172" s="1"/>
       <c r="AJ172" s="1"/>
-      <c r="AK172" s="4"/>
+      <c r="AK172" s="5"/>
     </row>
     <row r="173" spans="1:37" ht="30" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
@@ -29372,7 +29378,7 @@
       <c r="AH173" s="1"/>
       <c r="AI173" s="1"/>
       <c r="AJ173" s="3"/>
-      <c r="AK173" s="4"/>
+      <c r="AK173" s="5"/>
     </row>
     <row r="174" spans="1:37" ht="45" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
@@ -29434,7 +29440,7 @@
       <c r="AH174" s="1"/>
       <c r="AI174" s="1"/>
       <c r="AJ174" s="1"/>
-      <c r="AK174" s="4"/>
+      <c r="AK174" s="5"/>
     </row>
     <row r="175" spans="1:37" ht="30" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
@@ -29502,7 +29508,7 @@
       <c r="AH175" s="1"/>
       <c r="AI175" s="1"/>
       <c r="AJ175" s="2"/>
-      <c r="AK175" s="4"/>
+      <c r="AK175" s="5"/>
     </row>
     <row r="176" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
@@ -29564,7 +29570,7 @@
       <c r="AH176" s="1"/>
       <c r="AI176" s="1"/>
       <c r="AJ176" s="3"/>
-      <c r="AK176" s="4"/>
+      <c r="AK176" s="5"/>
     </row>
     <row r="177" spans="1:37" ht="30" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
@@ -29626,7 +29632,7 @@
       <c r="AH177" s="1"/>
       <c r="AI177" s="1"/>
       <c r="AJ177" s="1"/>
-      <c r="AK177" s="4"/>
+      <c r="AK177" s="5"/>
     </row>
     <row r="178" spans="1:37" ht="45" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
@@ -29688,7 +29694,7 @@
       <c r="AH178" s="1"/>
       <c r="AI178" s="1"/>
       <c r="AJ178" s="3"/>
-      <c r="AK178" s="4"/>
+      <c r="AK178" s="5"/>
     </row>
     <row r="179" spans="1:37" ht="30" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
@@ -29762,7 +29768,7 @@
       <c r="AH179" s="1"/>
       <c r="AI179" s="1"/>
       <c r="AJ179" s="1"/>
-      <c r="AK179" s="4"/>
+      <c r="AK179" s="5"/>
     </row>
     <row r="180" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>

--- a/Satisfactory_calculator/item_list.xlsx
+++ b/Satisfactory_calculator/item_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bjarki\source\repos\Satisfactory_calculator\Satisfactory_calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4CFEAD-CA80-44D9-9E70-BA1B3C25050C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA3EDDF-A143-403A-9C5A-2846FF9D9C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5340" yWindow="2760" windowWidth="30405" windowHeight="14295" activeTab="3" xr2:uid="{CF63DFE2-E3F1-40A6-9DC4-F78A2094206C}"/>
+    <workbookView xWindow="5340" yWindow="2760" windowWidth="30405" windowHeight="14295" xr2:uid="{CF63DFE2-E3F1-40A6-9DC4-F78A2094206C}"/>
   </bookViews>
   <sheets>
     <sheet name="raw_material" sheetId="4" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8234" uniqueCount="1348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8234" uniqueCount="1346">
   <si>
     <t>Crafted In</t>
   </si>
@@ -4071,12 +4071,6 @@
   </si>
   <si>
     <t>Dissolved Silica</t>
-  </si>
-  <si>
-    <t>item_qty_1</t>
-  </si>
-  <si>
-    <t>item_qty_unit_1</t>
   </si>
 </sst>
 </file>
@@ -7070,7 +7064,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{841FB181-CBC0-4A34-86F6-94FA4ACCE032}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -7292,8 +7286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45C4349C-A20E-4466-BDDA-F12F53635295}">
   <dimension ref="A1:V316"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="A244" sqref="A244:XFD244"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7330,10 +7324,10 @@
         <v>121</v>
       </c>
       <c r="C1" t="s">
-        <v>1346</v>
+        <v>78</v>
       </c>
       <c r="D1" t="s">
-        <v>1347</v>
+        <v>119</v>
       </c>
       <c r="E1" t="s">
         <v>1328</v>
@@ -21778,8 +21772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F544B06-6065-4C8E-AAF6-1E1D3DDA6940}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B57" sqref="B56:B57"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Satisfactory_calculator/item_list.xlsx
+++ b/Satisfactory_calculator/item_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bjarki\source\repos\Satisfactory_calculator\Satisfactory_calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA3EDDF-A143-403A-9C5A-2846FF9D9C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C039C09-F41E-4D51-B71F-486ADD3ADEFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5340" yWindow="2760" windowWidth="30405" windowHeight="14295" xr2:uid="{CF63DFE2-E3F1-40A6-9DC4-F78A2094206C}"/>
+    <workbookView xWindow="5340" yWindow="2760" windowWidth="30405" windowHeight="14295" activeTab="3" xr2:uid="{CF63DFE2-E3F1-40A6-9DC4-F78A2094206C}"/>
   </bookViews>
   <sheets>
     <sheet name="raw_material" sheetId="4" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8234" uniqueCount="1346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8237" uniqueCount="1347">
   <si>
     <t>Crafted In</t>
   </si>
@@ -4071,6 +4071,9 @@
   </si>
   <si>
     <t>Dissolved Silica</t>
+  </si>
+  <si>
+    <t>node</t>
   </si>
 </sst>
 </file>
@@ -7062,10 +7065,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{841FB181-CBC0-4A34-86F6-94FA4ACCE032}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7077,7 +7080,7 @@
     <col min="5" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>71</v>
       </c>
@@ -7096,8 +7099,11 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -7116,8 +7122,11 @@
       <c r="F2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -7136,8 +7145,11 @@
       <c r="F3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -7156,8 +7168,11 @@
       <c r="F4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -7176,8 +7191,11 @@
       <c r="F5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>52</v>
       </c>
@@ -7196,8 +7214,11 @@
       <c r="F6" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>68</v>
       </c>
@@ -7216,8 +7237,11 @@
       <c r="F7" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>69</v>
       </c>
@@ -7236,8 +7260,11 @@
       <c r="F8" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>70</v>
       </c>
@@ -7256,8 +7283,11 @@
       <c r="F9" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>136</v>
       </c>
@@ -7275,6 +7305,9 @@
       </c>
       <c r="F10" t="s">
         <v>138</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -7286,7 +7319,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45C4349C-A20E-4466-BDDA-F12F53635295}">
   <dimension ref="A1:V316"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -21397,7 +21430,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21762,6 +21795,15 @@
       <c r="D14" t="s">
         <v>83</v>
       </c>
+      <c r="E14" t="s">
+        <v>132</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>85</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21772,8 +21814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F544B06-6065-4C8E-AAF6-1E1D3DDA6940}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21914,7 +21956,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
